--- a/Lucas.xlsx
+++ b/Lucas.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>Código</t>
   </si>
@@ -270,23 +270,26 @@
   </si>
   <si>
     <t>Receita Líquida</t>
-  </si>
-  <si>
-    <t>Situação</t>
-  </si>
-  <si>
-    <t>Valor Acumulado do ano de despesas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;R$&quot;\ #,##0;[Red]\-&quot;R$&quot;\ #,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,15 +298,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -364,21 +397,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -387,12 +443,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,364 +779,559 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C17" sqref="C17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="3" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="19">
         <v>4500</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="19">
         <v>5040</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="19">
         <v>5696</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="F2" s="19">
+        <f>SUM(C2:E2)</f>
+        <v>15236</v>
+      </c>
+      <c r="G2" s="19">
+        <f>MAX(C2:E2)</f>
+        <v>5696</v>
+      </c>
+      <c r="H2" s="19">
+        <f>MIN(C2:E2)</f>
+        <v>4500</v>
+      </c>
+      <c r="I2" s="19">
+        <f>AVERAGE(C2:E2)</f>
+        <v>5078.666666666667</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="12">
         <v>6250</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="12">
         <v>7000</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="12">
         <v>7910</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F7" si="0">SUM(C3:E3)</f>
+        <v>21160</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G7" si="1">MAX(C3:E3)</f>
+        <v>7910</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:H7" si="2">MIN(C3:E3)</f>
+        <v>6250</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I7" si="3">AVERAGE(C3:E3)</f>
+        <v>7053.333333333333</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="19">
         <v>3300</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="19">
         <v>3696</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="19">
         <v>4176</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="F4" s="19">
+        <f t="shared" si="0"/>
+        <v>11172</v>
+      </c>
+      <c r="G4" s="19">
+        <f t="shared" si="1"/>
+        <v>4176</v>
+      </c>
+      <c r="H4" s="19">
+        <f t="shared" si="2"/>
+        <v>3300</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" si="3"/>
+        <v>3724</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="12">
         <v>8000</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="12">
         <v>8690</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="12">
         <v>10125</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>26815</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>10125</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="3"/>
+        <v>8938.3333333333339</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="19">
         <v>4557</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="19">
         <v>5104</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="19">
         <v>5676</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="F6" s="19">
+        <f t="shared" si="0"/>
+        <v>15337</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" si="1"/>
+        <v>5676</v>
+      </c>
+      <c r="H6" s="19">
+        <f t="shared" si="2"/>
+        <v>4557</v>
+      </c>
+      <c r="I6" s="19">
+        <f t="shared" si="3"/>
+        <v>5112.333333333333</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="12">
         <v>3260</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="12">
         <v>3640</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="12">
         <v>4113</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>11013</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
+        <v>4113</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="2"/>
+        <v>3260</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="3"/>
+        <v>3671</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="C8" s="19">
+        <f>SUM(C2:C7)</f>
+        <v>29867</v>
+      </c>
+      <c r="D8" s="19">
+        <f t="shared" ref="D8:I8" si="4">SUM(D2:D7)</f>
+        <v>33170</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="4"/>
+        <v>37696</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="4"/>
+        <v>100733</v>
+      </c>
+      <c r="G8" s="19">
+        <f t="shared" si="4"/>
+        <v>37696</v>
+      </c>
+      <c r="H8" s="19">
+        <f t="shared" si="4"/>
+        <v>29867</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" si="4"/>
+        <v>33577.666666666672</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="16">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="19">
         <v>6265</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="19">
         <v>6954</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="19">
         <v>7858</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="F10" s="19">
+        <f>SUM(C10:E10)</f>
+        <v>21077</v>
+      </c>
+      <c r="G10" s="19">
+        <f>MAX(C10:E10)</f>
+        <v>7858</v>
+      </c>
+      <c r="H10" s="19">
+        <f>MIN(C10:E10)</f>
+        <v>6265</v>
+      </c>
+      <c r="I10" s="19">
+        <f>AVERAGE(C10:E10)</f>
+        <v>7025.666666666667</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="16">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="12">
         <v>8701</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="12">
         <v>9658</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="12">
         <v>10197</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="F11" s="12">
+        <f t="shared" ref="F11:F15" si="5">SUM(C11:E11)</f>
+        <v>28556</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" ref="G11:G15" si="6">MAX(C11:E11)</f>
+        <v>10197</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" ref="H11:H15" si="7">MIN(C11:E11)</f>
+        <v>8701</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" ref="I11:I15" si="8">AVERAGE(C11:E11)</f>
+        <v>9518.6666666666661</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="16">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="19">
         <v>4569</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="19">
         <v>5099</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="19">
         <v>5769</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="F12" s="19">
+        <f t="shared" si="5"/>
+        <v>15437</v>
+      </c>
+      <c r="G12" s="19">
+        <f t="shared" si="6"/>
+        <v>5769</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="7"/>
+        <v>4569</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="8"/>
+        <v>5145.666666666667</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="16">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="12">
         <v>12341</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="12">
         <v>12365</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="12">
         <v>13969</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="F13" s="12">
+        <f t="shared" si="5"/>
+        <v>38675</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="6"/>
+        <v>13969</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="7"/>
+        <v>12341</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="8"/>
+        <v>12891.666666666666</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="16">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="19">
         <v>6344</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="19">
         <v>7042</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="19">
         <v>7957</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="F14" s="19">
+        <f t="shared" si="5"/>
+        <v>21343</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" si="6"/>
+        <v>7957</v>
+      </c>
+      <c r="H14" s="19">
+        <f t="shared" si="7"/>
+        <v>6344</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="8"/>
+        <v>7114.333333333333</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="16">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="12">
         <v>4525</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="12">
         <v>5022</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="12">
         <v>5671</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="F15" s="12">
+        <f t="shared" si="5"/>
+        <v>15218</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="6"/>
+        <v>5671</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="7"/>
+        <v>4525</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="8"/>
+        <v>5072.666666666667</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="C16" s="19">
+        <f>SUM(C10:C15)</f>
+        <v>42745</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" ref="D16:I16" si="9">SUM(D10:D15)</f>
+        <v>46140</v>
+      </c>
+      <c r="E16" s="19">
+        <f t="shared" si="9"/>
+        <v>51421</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="9"/>
+        <v>140306</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="9"/>
+        <v>51421</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" si="9"/>
+        <v>42745</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="9"/>
+        <v>46768.666666666664</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="11">
+        <f>SUM(F8,F16)</f>
+        <v>241039</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1062,7 +1341,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="G13" sqref="B13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,8 +1350,9 @@
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1318,23 +1598,59 @@
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="3">
+        <f>SUM(B4:B11)</f>
+        <v>725</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:G12" si="0">SUM(C4:C11)</f>
+        <v>735</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>839</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>837</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>736</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
+        <v>758</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="12">
+        <f>(B2-B12)</f>
+        <v>-225</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" ref="C13:G13" si="1">(C2-C12)</f>
+        <v>15</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="1"/>
+        <v>-39</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="1"/>
+        <v>-137</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="1"/>
+        <v>-82</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="1"/>
+        <v>-58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1344,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,12 +1673,12 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1388,7 +1704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1404,11 +1720,21 @@
       <c r="E2" s="7">
         <v>0.09</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="12">
+        <f>(C2*D2)</f>
+        <v>85.300000000000011</v>
+      </c>
+      <c r="G2" s="12">
+        <f>(C2*E2)</f>
+        <v>76.77</v>
+      </c>
+      <c r="H2" s="20">
+        <f>SUM(C2,F2:G2)</f>
+        <v>1015.0699999999999</v>
+      </c>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1424,11 +1750,20 @@
       <c r="E3" s="7">
         <v>0.08</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F9" si="0">(C3*D3)</f>
+        <v>95.004900000000006</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G9" si="1">(C3*E3)</f>
+        <v>76.08</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" ref="H3:H9" si="2">SUM(C3,F3:G3)</f>
+        <v>1122.0848999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1444,11 +1779,20 @@
       <c r="E4" s="7">
         <v>0.06</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
+        <v>39.398400000000002</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="1"/>
+        <v>27.36</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="2"/>
+        <v>522.75839999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1464,11 +1808,20 @@
       <c r="E5" s="7">
         <v>0.06</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="2"/>
+        <v>572.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1484,11 +1837,20 @@
       <c r="E6" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>76.414999999999992</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="1"/>
+        <v>59.500000000000007</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="2"/>
+        <v>985.91499999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1504,11 +1866,20 @@
       <c r="E7" s="7">
         <v>0.05</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>28.6875</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
+        <v>22.950000000000003</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="2"/>
+        <v>510.63749999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1524,11 +1895,20 @@
       <c r="E8" s="7">
         <v>0.05</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>34.0336</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="1"/>
+        <v>23.900000000000002</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="2"/>
+        <v>535.93359999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1544,9 +1924,18 @@
       <c r="E9" s="7">
         <v>0.04</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>39.414200000000001</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="1"/>
+        <v>26.32</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="2"/>
+        <v>723.7342000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1558,7 +1947,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,6 +1955,8 @@
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,8 +1997,14 @@
       <c r="C3" s="3">
         <v>0.15</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="12">
+        <f>(B3*C3)</f>
+        <v>75</v>
+      </c>
+      <c r="E3" s="21">
+        <f>($B$1*D3)</f>
+        <v>220.5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1619,8 +2016,14 @@
       <c r="C4" s="3">
         <v>0.15</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="12">
+        <f t="shared" ref="D4:D9" si="0">(B4*C4)</f>
+        <v>112.5</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" ref="E4:E9" si="1">($B$1*D4)</f>
+        <v>330.75</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1632,8 +2035,14 @@
       <c r="C5" s="3">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="1"/>
+        <v>7350</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1645,8 +2054,14 @@
       <c r="C6" s="3">
         <v>0.5</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="1"/>
+        <v>455.7</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1658,8 +2073,14 @@
       <c r="C7" s="3">
         <v>0.1</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1671,8 +2092,14 @@
       <c r="C8" s="3">
         <v>2.5</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>3750</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="1"/>
+        <v>11025</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1684,8 +2111,14 @@
       <c r="C9" s="3">
         <v>6</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="1"/>
+        <v>3351.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1694,17 +2127,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1741,7 +2173,10 @@
       <c r="E2" s="2">
         <v>240000</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="2">
+        <f>SUM(B2:E2)</f>
+        <v>769100</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1767,154 +2202,203 @@
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>20000</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="12">
         <v>26000</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="12">
         <v>33800</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="12">
         <v>43940</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="12">
+        <f>SUM(C5:E5)</f>
+        <v>103740</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="12">
         <v>20000</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="12">
         <v>15600</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="12">
         <v>20280</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="12">
         <v>26364</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="12">
+        <f t="shared" ref="F6:F10" si="0">SUM(C6:E6)</f>
+        <v>62244</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="12">
         <v>12000</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="12">
         <v>20930</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="12">
         <v>27209</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="12">
         <v>35371.699999999997</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>83510.7</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="12">
         <v>16100</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="12">
         <v>28870</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="12">
         <v>33631</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="12">
         <v>43720.3</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>106221.3</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="12">
         <v>19000</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="12">
         <v>39000</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="12">
         <v>50700</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="12">
         <v>65910</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>155610</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="12">
         <v>25000</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="12">
         <v>32500</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="12">
         <v>42250</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="23">
         <v>54925</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>129675</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="12">
+        <f>SUM(B5:B10)</f>
+        <v>112100</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" ref="C11:E11" si="1">SUM(C5:C10)</f>
+        <v>162900</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="1"/>
+        <v>207870</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="1"/>
+        <v>270231</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="24">
+        <f>(B2-B11)</f>
+        <v>27900</v>
+      </c>
+      <c r="C12" s="24">
+        <f t="shared" ref="C12:E12" si="2">(C2-C11)</f>
+        <v>22100</v>
+      </c>
+      <c r="D12" s="24">
+        <f t="shared" si="2"/>
+        <v>-3770</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="2"/>
+        <v>-30231</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="1"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="1"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C14:E14"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>